--- a/02_MasterWifoMannheim/04_Graph/knowledgeAreas.xlsx
+++ b/02_MasterWifoMannheim/04_Graph/knowledgeAreas.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28025"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28129"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -10,7 +10,7 @@
   </mc:AlternateContent>
   <xr:revisionPtr revIDLastSave="87" documentId="11_AD4DB114E441178AC67DF4B50ED1E6EA693EDF1C" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B200283C-5CBA-483B-B9E4-8C542AED0F9E}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-26070" yWindow="2130" windowWidth="21600" windowHeight="14070" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -502,7 +502,7 @@
   <dimension ref="A1:A29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A29"/>
+      <selection activeCell="A21" sqref="A21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/02_MasterWifoMannheim/04_Graph/knowledgeAreas.xlsx
+++ b/02_MasterWifoMannheim/04_Graph/knowledgeAreas.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28129"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28227"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -10,7 +10,7 @@
   </mc:AlternateContent>
   <xr:revisionPtr revIDLastSave="87" documentId="11_AD4DB114E441178AC67DF4B50ED1E6EA693EDF1C" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B200283C-5CBA-483B-B9E4-8C542AED0F9E}"/>
   <bookViews>
-    <workbookView xWindow="-26070" yWindow="2130" windowWidth="21600" windowHeight="14070" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -502,7 +502,7 @@
   <dimension ref="A1:A29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A21" sqref="A21"/>
+      <selection activeCell="H22" sqref="H21:H22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -657,5 +657,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>